--- a/BD_UD1_A11_Normalizacion.xlsx
+++ b/BD_UD1_A11_Normalizacion.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Jaime\OneDrive - U-tad\17-18\BD\Actividades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-TAD\DAM\git\BBDD_Normalizacion\Mendilizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A69539-50C6-4CC1-808F-440D56929218}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20328" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
+    <sheet name="1FN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>ID. JUGADOR</t>
   </si>
@@ -176,6 +178,30 @@
   </si>
   <si>
     <t>TIPO A</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Minnesota Tiberwolves</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
   </si>
 </sst>
 </file>
@@ -242,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -258,6 +284,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,4 +801,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C8CB9-F91C-40E9-AC4A-325A84487496}">
+  <dimension ref="C5:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BD_UD1_A11_Normalizacion.xlsx
+++ b/BD_UD1_A11_Normalizacion.xlsx
@@ -8,25 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-TAD\DAM\git\BBDD_Normalizacion\Mendilizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A69539-50C6-4CC1-808F-440D56929218}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1C2068-39B6-4EEB-B1BF-2705C20F5834}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
     <sheet name="1FN" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>ID. JUGADOR</t>
   </si>
@@ -604,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,108 +810,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C8CB9-F91C-40E9-AC4A-325A84487496}">
-  <dimension ref="C5:E15"/>
+  <dimension ref="C5:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="6">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BD_UD1_A11_Normalizacion.xlsx
+++ b/BD_UD1_A11_Normalizacion.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-TAD\DAM\git\BBDD_Normalizacion\Mendilizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Mendizábal\Documents\GitHub\Mendilizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1C2068-39B6-4EEB-B1BF-2705C20F5834}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686A021-BA34-4B33-9ECA-057BC0A8FCC5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
     <sheet name="1FN" sheetId="2" r:id="rId2"/>
+    <sheet name="2FN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="55">
   <si>
     <t>ID. JUGADOR</t>
   </si>
@@ -207,13 +208,34 @@
   </si>
   <si>
     <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>United Center</t>
+  </si>
+  <si>
+    <t>Verizon center</t>
+  </si>
+  <si>
+    <t>Target Center</t>
+  </si>
+  <si>
+    <t>AT&amp;T Center</t>
+  </si>
+  <si>
+    <t>Staples Center</t>
+  </si>
+  <si>
+    <t>TD Garden</t>
+  </si>
+  <si>
+    <t>Barclays Center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +253,21 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -273,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -290,8 +327,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,175 +877,916 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C8CB9-F91C-40E9-AC4A-325A84487496}">
-  <dimension ref="C5:F15"/>
+  <dimension ref="B5:N28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F23:F24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="C5:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6">
+      <c r="H5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9">
         <v>32</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7">
+      <c r="H6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="9">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9">
         <v>21</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="9">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
+        <v>21</v>
+      </c>
+      <c r="F8" s="10">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="H8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="9">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9">
         <v>16</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="H9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="9">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
         <v>6</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11">
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="9">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9">
         <v>18</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12">
+      <c r="H11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="9">
+        <v>18119</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="9">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9">
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13">
+      <c r="H12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="9">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="9">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9">
         <v>17</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14">
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="9">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="9">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
+        <v>16</v>
+      </c>
+      <c r="F14" s="9">
         <v>12</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15">
+      <c r="H14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="9">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="9">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
+        <v>33</v>
+      </c>
+      <c r="F15" s="9">
         <v>14</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="9">
         <v>9</v>
       </c>
+      <c r="H15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="9">
+        <v>18119</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="11"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51574CE8-7219-4E73-94AD-1B2B35A3D638}">
+  <dimension ref="C2:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.44140625" style="18"/>
+    <col min="3" max="3" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.109375" style="18" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="C2" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="7">
+        <v>14</v>
+      </c>
+      <c r="K8" s="7">
+        <v>9</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="7">
+        <v>18119</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8">
+        <v>32</v>
+      </c>
+      <c r="G11" s="8">
+        <v>13</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="8">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="8">
+        <v>23</v>
+      </c>
+      <c r="F12" s="8">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="8">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="8">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="8">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8">
+        <v>6</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="8">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>6</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="8">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="8">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8">
+        <v>16</v>
+      </c>
+      <c r="F16" s="8">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8">
+        <v>7</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="8">
+        <v>18119</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="8">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8">
+        <v>16</v>
+      </c>
+      <c r="F17" s="8">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8">
+        <v>7</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="8">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="8">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8">
+        <v>17</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="8">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="8">
+        <v>16</v>
+      </c>
+      <c r="F19" s="8">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="8">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8">
+        <v>33</v>
+      </c>
+      <c r="F20" s="8">
+        <v>14</v>
+      </c>
+      <c r="G20" s="8">
+        <v>9</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="8">
+        <v>18119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BD_UD1_A11_Normalizacion.xlsx
+++ b/BD_UD1_A11_Normalizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Mendizábal\Documents\GitHub\Mendilizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686A021-BA34-4B33-9ECA-057BC0A8FCC5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59D135-8B1A-488C-969E-44BB6E92B791}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="55">
   <si>
     <t>ID. JUGADOR</t>
   </si>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,13 +262,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -310,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,9 +320,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -342,9 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -353,9 +340,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -900,425 +884,425 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>23</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>32</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>13</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>20500</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>23</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>21</v>
       </c>
-      <c r="G7" s="9">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>20300</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>21</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>20</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>13</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>19300</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>16</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>6</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>17300</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="9">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
         <v>6</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>18100</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="8">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>16</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>18</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>7</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>18119</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>16</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>18</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>7</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>21000</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>16</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>17</v>
       </c>
-      <c r="G13" s="9">
-        <v>2</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="8">
+        <v>2</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>20500</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="9">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="8">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>16</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>12</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>1</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>18500</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>4</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>33</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>14</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>9</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>18119</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I16" s="11"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1329,460 +1313,719 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51574CE8-7219-4E73-94AD-1B2B35A3D638}">
-  <dimension ref="C2:M20"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" style="18"/>
-    <col min="3" max="3" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.109375" style="18" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="18"/>
+    <col min="1" max="1" width="11.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" style="15" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="C2" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="7">
+        <v>32</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="J4" s="7">
+        <v>21</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="6">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="7">
+        <v>16</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7">
-        <v>23</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="J7" s="7">
+        <v>6</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7">
-        <v>33</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="7">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7">
+        <v>3</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="7">
+        <v>18</v>
+      </c>
+      <c r="L9" s="7">
+        <v>3</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="7">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7">
+        <v>3</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="7">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7">
+        <v>3</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="7">
         <v>14</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L12" s="7">
+        <v>4</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="7">
         <v>9</v>
       </c>
-      <c r="L8" s="7" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="7">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="7">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="7">
+        <v>23</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="7">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="7">
+        <v>21</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="7">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="7">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="7">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="7">
+        <v>16</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="7">
+      <c r="L20" s="7">
         <v>18119</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8" t="s">
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7">
+        <v>3</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="7">
+        <v>16</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="7">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7">
+        <v>3</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="7">
+        <v>16</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="7">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="7">
+        <v>3</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="7">
+        <v>16</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="7">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>4</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8">
-        <v>23</v>
-      </c>
-      <c r="F11" s="8">
-        <v>32</v>
-      </c>
-      <c r="G11" s="8">
-        <v>13</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="8">
-        <v>20500</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="8">
-        <v>23</v>
-      </c>
-      <c r="F12" s="8">
-        <v>21</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="8">
-        <v>20300</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="8">
-        <v>21</v>
-      </c>
-      <c r="F13" s="7">
-        <v>20</v>
-      </c>
-      <c r="G13" s="8">
-        <v>13</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="8">
-        <v>19300</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="8">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="7">
-        <v>5</v>
-      </c>
-      <c r="F14" s="8">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8">
-        <v>6</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="8">
-        <v>17300</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>6</v>
-      </c>
-      <c r="G15" s="8">
-        <v>2</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="8">
-        <v>18100</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="8">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="7">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="8">
-        <v>16</v>
-      </c>
-      <c r="F16" s="8">
-        <v>18</v>
-      </c>
-      <c r="G16" s="8">
-        <v>7</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="I24" s="7">
+        <v>33</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="8">
-        <v>18119</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="8">
-        <v>3</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="8">
-        <v>16</v>
-      </c>
-      <c r="F17" s="8">
-        <v>18</v>
-      </c>
-      <c r="G17" s="8">
-        <v>7</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="8">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="8">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="8">
-        <v>16</v>
-      </c>
-      <c r="F18" s="8">
-        <v>17</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="8">
-        <v>20500</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="8">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8">
-        <v>16</v>
-      </c>
-      <c r="F19" s="8">
-        <v>12</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="8">
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="8">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="8">
-        <v>33</v>
-      </c>
-      <c r="F20" s="8">
-        <v>14</v>
-      </c>
-      <c r="G20" s="8">
-        <v>9</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="L24" s="7">
         <v>18119</v>
       </c>
     </row>

--- a/BD_UD1_A11_Normalizacion.xlsx
+++ b/BD_UD1_A11_Normalizacion.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Mendizábal\Documents\GitHub\Mendilizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-TAD\DAM\git\BBDD_Normalizacion\Mendilizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59D135-8B1A-488C-969E-44BB6E92B791}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905BF492-3D01-4B6C-BB4C-CACBA271AD49}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
     <sheet name="1FN" sheetId="2" r:id="rId2"/>
-    <sheet name="2FN" sheetId="3" r:id="rId3"/>
+    <sheet name="2FN" sheetId="4" r:id="rId3"/>
+    <sheet name="3FN" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="58">
   <si>
     <t>ID. JUGADOR</t>
   </si>
@@ -229,13 +230,22 @@
   </si>
   <si>
     <t>Barclays Center</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esto es </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +277,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -299,11 +318,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -326,23 +367,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,7 +747,7 @@
   <dimension ref="C2:M8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,1169 +949,1742 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C8CB9-F91C-40E9-AC4A-325A84487496}">
   <dimension ref="B5:N28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="C5:I15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.88671875" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875" style="22"/>
+    <col min="3" max="3" width="11.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.88671875" style="22" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="L5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="M5" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="8">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="20">
         <v>23</v>
       </c>
-      <c r="F6" s="8">
+      <c r="H6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="20">
         <v>32</v>
       </c>
-      <c r="G6" s="8">
+      <c r="K6" s="20">
         <v>13</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="L6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="8">
+      <c r="M6" s="20">
         <v>20500</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="8">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="20">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="20">
         <v>23</v>
       </c>
-      <c r="F7" s="8">
+      <c r="H7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="20">
         <v>21</v>
       </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="K7" s="20">
+        <v>2</v>
+      </c>
+      <c r="L7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="8">
+      <c r="M7" s="20">
         <v>20300</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8" t="s">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="20">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="20">
         <v>21</v>
       </c>
-      <c r="F8" s="9">
+      <c r="H8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8">
+      <c r="I8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="17">
+        <v>20</v>
+      </c>
+      <c r="K8" s="20">
         <v>13</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="L8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="8">
+      <c r="M8" s="20">
         <v>19300</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9" t="s">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="20">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="17">
         <v>5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="H9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="20">
         <v>16</v>
       </c>
-      <c r="G9" s="8">
+      <c r="K9" s="20">
         <v>6</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="L9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="8">
+      <c r="M9" s="20">
         <v>17300</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="s">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="20">
+        <v>2</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="20">
+        <v>2</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="20">
         <v>6</v>
       </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="K10" s="20">
+        <v>2</v>
+      </c>
+      <c r="L10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="8">
+      <c r="M10" s="20">
         <v>18100</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="20">
         <v>3</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="20">
         <v>16</v>
       </c>
-      <c r="F11" s="8">
+      <c r="H11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="20">
         <v>18</v>
       </c>
-      <c r="G11" s="8">
+      <c r="K11" s="20">
         <v>7</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="L11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="8">
+      <c r="M11" s="20">
         <v>18119</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="20">
         <v>3</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="20">
         <v>16</v>
       </c>
-      <c r="F12" s="8">
+      <c r="H12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="20">
         <v>18</v>
       </c>
-      <c r="G12" s="8">
+      <c r="K12" s="20">
         <v>7</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="L12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="8">
+      <c r="M12" s="20">
         <v>21000</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="20">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="20">
         <v>16</v>
       </c>
-      <c r="F13" s="8">
+      <c r="H13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="20">
         <v>17</v>
       </c>
-      <c r="G13" s="8">
-        <v>2</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="K13" s="20">
+        <v>2</v>
+      </c>
+      <c r="L13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="8">
+      <c r="M13" s="20">
         <v>20500</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="8">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="20">
         <v>3</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="20">
         <v>16</v>
       </c>
-      <c r="F14" s="8">
-        <v>12</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="H14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="20">
+        <v>12</v>
+      </c>
+      <c r="K14" s="20">
         <v>1</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="L14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="8">
+      <c r="M14" s="20">
         <v>18500</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="8">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="20">
         <v>4</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="20">
         <v>33</v>
       </c>
-      <c r="F15" s="8">
+      <c r="H15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="20">
         <v>14</v>
       </c>
-      <c r="G15" s="8">
+      <c r="K15" s="20">
         <v>9</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="L15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="8">
+      <c r="M15" s="20">
         <v>18119</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I16" s="10"/>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I16" s="23"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="25"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="26"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="C19:M24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E2EFA5-5ABD-476B-809C-445E11A902F1}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>20500</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="7">
+        <v>32</v>
+      </c>
+      <c r="I3" s="7">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7">
+        <v>23</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20300</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="7">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>23</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7">
+        <v>19300</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="6">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17300</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="7">
+        <v>16</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="6">
+        <v>4</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18100</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7">
+        <v>18119</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7">
+        <v>16</v>
+      </c>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7">
+        <v>21000</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="7">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7">
+        <v>16</v>
+      </c>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20500</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="7">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>16</v>
+      </c>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18500</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>16</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18119</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7">
+        <v>14</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9</v>
+      </c>
+      <c r="J12" s="7">
+        <v>33</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="Q15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51574CE8-7219-4E73-94AD-1B2B35A3D638}">
-  <dimension ref="A2:N24"/>
+  <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" style="15" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="15"/>
+    <col min="1" max="1" width="11.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2"/>
+      <c r="F2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
+      <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="7">
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="I3" s="7">
+        <v>13</v>
       </c>
       <c r="J3" s="7">
-        <v>32</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="7">
-        <v>13</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="7">
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
       </c>
       <c r="J4" s="7">
-        <v>21</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
+      <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="H5" s="6">
         <v>20</v>
       </c>
-      <c r="L5" s="7">
-        <v>2</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="I5" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
+      <c r="J5" s="7">
+        <v>21</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="7">
         <v>16</v>
       </c>
-      <c r="L6" s="7">
-        <v>2</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="I6" s="7">
         <v>6</v>
       </c>
+      <c r="J6" s="6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>2</v>
-      </c>
+      <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
       </c>
       <c r="J7" s="7">
-        <v>6</v>
-      </c>
-      <c r="L7" s="7">
-        <v>2</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>3</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7">
+      <c r="D8" s="9"/>
+      <c r="E8"/>
+      <c r="F8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7</v>
       </c>
       <c r="J8" s="7">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="7">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>3</v>
-      </c>
+      <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="7">
+      <c r="D9" s="9"/>
+      <c r="E9"/>
+      <c r="F9" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7</v>
       </c>
       <c r="J9" s="7">
-        <v>18</v>
-      </c>
-      <c r="L9" s="7">
-        <v>3</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="7">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
+      <c r="A10" s="9"/>
       <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="7">
+      <c r="D10" s="9"/>
+      <c r="E10"/>
+      <c r="F10" s="7">
         <v>3</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
       </c>
       <c r="J10" s="7">
-        <v>17</v>
-      </c>
-      <c r="L10" s="7">
-        <v>3</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>3</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="7">
+      <c r="D11" s="9"/>
+      <c r="E11"/>
+      <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
       </c>
       <c r="J11" s="7">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7">
-        <v>3</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>4</v>
-      </c>
+      <c r="A12" s="9"/>
       <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7">
+      <c r="D12" s="9"/>
+      <c r="E12"/>
+      <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9</v>
       </c>
       <c r="J12" s="7">
-        <v>14</v>
-      </c>
-      <c r="L12" s="7">
-        <v>4</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B14"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="H14" s="12"/>
+      <c r="I14"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B15"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="6">
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="7">
-        <v>23</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="7">
-        <v>20500</v>
-      </c>
+      <c r="H15" s="12"/>
+      <c r="I15"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="B16"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="7">
-        <v>23</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="7">
-        <v>20300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="H16" s="12"/>
+      <c r="I16"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="6">
         <v>3</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="7">
-        <v>2</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="7">
-        <v>19300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="H17" s="12"/>
+      <c r="I17"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="6">
         <v>4</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="7">
-        <v>2</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="H18" s="12"/>
+      <c r="I18"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="7">
+        <v>20500</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="7">
+        <v>20300</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="7">
+        <v>19300</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="7">
+      <c r="C24" s="7">
         <v>17300</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G19" s="7">
-        <v>2</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L19" s="7">
+      <c r="C25" s="7">
         <v>18100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7">
-        <v>3</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="7">
-        <v>16</v>
-      </c>
-      <c r="K20" s="7" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="7">
+      <c r="C26" s="7">
         <v>18119</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>1</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="7">
-        <v>3</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="7">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="7">
+      <c r="C27" s="7">
         <v>21000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>2</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7">
-        <v>3</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="7">
-        <v>16</v>
-      </c>
-      <c r="K22" s="7" t="s">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="7">
+      <c r="C28" s="7">
         <v>20500</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="7">
-        <v>3</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="7">
-        <v>16</v>
-      </c>
-      <c r="K23" s="7" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="7">
+      <c r="C29" s="7">
         <v>18500</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>4</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="7">
-        <v>4</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="7">
-        <v>33</v>
-      </c>
-      <c r="K24" s="7" t="s">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="7">
+      <c r="C30" s="7">
         <v>18119</v>
       </c>
     </row>

--- a/BD_UD1_A11_Normalizacion.xlsx
+++ b/BD_UD1_A11_Normalizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-TAD\DAM\git\BBDD_Normalizacion\Mendilizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905BF492-3D01-4B6C-BB4C-CACBA271AD49}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775A54B5-AFDD-453D-8858-85355B787B03}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
     <t>Nike</t>
   </si>
   <si>
-    <t xml:space="preserve">Esto es </t>
+    <t>Esto es 1FN por que sus celdas tienen un valor atomico sin valores multievaluados ni grupos repetitivos</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
   <dimension ref="B5:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:M24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/BD_UD1_A11_Normalizacion.xlsx
+++ b/BD_UD1_A11_Normalizacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-TAD\DAM\git\BBDD_Normalizacion\Mendilizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Mendizábal\Documents\GitHub\Mendilizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775A54B5-AFDD-453D-8858-85355B787B03}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E01F41-AF4F-45A8-9C4C-58A79C010B61}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="60">
   <si>
     <t>ID. JUGADOR</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>Esto es 1FN por que sus celdas tienen un valor atomico sin valores multievaluados ni grupos repetitivos</t>
+  </si>
+  <si>
+    <t>esto es 2FN porque todos los atributos estan relacionados con su clave primaria.</t>
+  </si>
+  <si>
+    <t>esta en 3FN porque todos los atrubutos dependen de la clave y no hay ninguna dependencia trasitiva</t>
   </si>
 </sst>
 </file>
@@ -344,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -429,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C8CB9-F91C-40E9-AC4A-325A84487496}">
   <dimension ref="B5:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,21 +1544,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E2EFA5-5ABD-476B-809C-445E11A902F1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:P6"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
@@ -1557,7 +1567,7 @@
     <col min="17" max="17" width="1.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1573,7 +1583,7 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="13" t="s">
         <v>41</v>
@@ -1599,23 +1609,8 @@
       <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
         <v>40</v>
@@ -1641,23 +1636,8 @@
       <c r="J3" s="7">
         <v>23</v>
       </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="7" t="s">
         <v>42</v>
@@ -1683,23 +1663,8 @@
       <c r="J4" s="7">
         <v>23</v>
       </c>
-      <c r="L4" s="6">
-        <v>2</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
         <v>43</v>
@@ -1725,23 +1690,8 @@
       <c r="J5" s="7">
         <v>21</v>
       </c>
-      <c r="L5" s="6">
-        <v>3</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
         <v>44</v>
@@ -1767,23 +1717,8 @@
       <c r="J6" s="6">
         <v>5</v>
       </c>
-      <c r="L6" s="6">
-        <v>4</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
         <v>45</v>
@@ -1811,7 +1746,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
         <v>37</v>
@@ -1839,7 +1774,7 @@
       </c>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
         <v>46</v>
@@ -1867,7 +1802,7 @@
       </c>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="7" t="s">
         <v>40</v>
@@ -1895,7 +1830,7 @@
       </c>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>47</v>
@@ -1923,7 +1858,7 @@
       </c>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="7" t="s">
         <v>37</v>
@@ -1951,7 +1886,7 @@
       </c>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1966,14 +1901,42 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
+    <row r="14" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -1981,25 +1944,67 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="8"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="J18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2012,77 +2017,98 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="J20" s="8"/>
+      <c r="B20" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="J21" s="8"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="J22" s="8"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="J23" s="8"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="J24" s="8"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B20:J25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2092,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51574CE8-7219-4E73-94AD-1B2B35A3D638}">
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2486,7 +2512,7 @@
       <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2522,7 +2548,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18" s="8"/>
       <c r="D18" s="6">
@@ -2575,8 +2601,12 @@
       <c r="C21" s="7">
         <v>20500</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="E21" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="9"/>
       <c r="J21" s="6" t="s">
         <v>11</v>
@@ -2593,8 +2623,10 @@
       <c r="C22" s="7">
         <v>20300</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="9"/>
       <c r="J22" s="6" t="s">
         <v>20</v>
@@ -2611,8 +2643,10 @@
       <c r="C23" s="7">
         <v>19300</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="9"/>
       <c r="J23" s="6" t="s">
         <v>11</v>
@@ -2629,8 +2663,10 @@
       <c r="C24" s="7">
         <v>17300</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="9"/>
       <c r="J24" s="6" t="s">
         <v>36</v>
@@ -2647,6 +2683,10 @@
       <c r="C25" s="7">
         <v>18100</v>
       </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
@@ -2655,6 +2695,10 @@
       <c r="C26" s="7">
         <v>18119</v>
       </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
@@ -2663,6 +2707,10 @@
       <c r="C27" s="7">
         <v>21000</v>
       </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
@@ -2689,6 +2737,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E21:H27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>